--- a/AAII_Financials/Yearly/HUSKF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HUSKF_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>HUSKF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16751100</v>
+        <v>14521400</v>
       </c>
       <c r="E8" s="3">
-        <v>13989100</v>
+        <v>16170300</v>
       </c>
       <c r="F8" s="3">
-        <v>9725300</v>
+        <v>13504100</v>
       </c>
       <c r="G8" s="3">
-        <v>12322400</v>
+        <v>9388100</v>
       </c>
       <c r="H8" s="3">
-        <v>18136200</v>
+        <v>11895200</v>
       </c>
       <c r="I8" s="3">
-        <v>17552800</v>
+        <v>17507400</v>
       </c>
       <c r="J8" s="3">
+        <v>16944200</v>
+      </c>
+      <c r="K8" s="3">
         <v>16753300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16868000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13066900</v>
+        <v>11506400</v>
       </c>
       <c r="E9" s="3">
-        <v>10723500</v>
+        <v>12613900</v>
       </c>
       <c r="F9" s="3">
-        <v>7588100</v>
+        <v>10351700</v>
       </c>
       <c r="G9" s="3">
-        <v>9327800</v>
+        <v>7325000</v>
       </c>
       <c r="H9" s="3">
-        <v>13194900</v>
+        <v>9004400</v>
       </c>
       <c r="I9" s="3">
-        <v>12692000</v>
+        <v>12737400</v>
       </c>
       <c r="J9" s="3">
+        <v>12252000</v>
+      </c>
+      <c r="K9" s="3">
         <v>12064200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>24707000</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3684200</v>
+        <v>3015000</v>
       </c>
       <c r="E10" s="3">
-        <v>3265600</v>
+        <v>3556400</v>
       </c>
       <c r="F10" s="3">
-        <v>2137200</v>
+        <v>3152400</v>
       </c>
       <c r="G10" s="3">
-        <v>2994600</v>
+        <v>2063100</v>
       </c>
       <c r="H10" s="3">
-        <v>4941300</v>
+        <v>2890800</v>
       </c>
       <c r="I10" s="3">
-        <v>4860800</v>
+        <v>4770000</v>
       </c>
       <c r="J10" s="3">
+        <v>4692200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4689100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-7839000</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>112200</v>
+        <v>397500</v>
       </c>
       <c r="E12" s="3">
-        <v>109900</v>
+        <v>108300</v>
       </c>
       <c r="F12" s="3">
-        <v>141500</v>
+        <v>106100</v>
       </c>
       <c r="G12" s="3">
-        <v>336500</v>
+        <v>136600</v>
       </c>
       <c r="H12" s="3">
-        <v>161100</v>
+        <v>324800</v>
       </c>
       <c r="I12" s="3">
-        <v>185200</v>
+        <v>155500</v>
       </c>
       <c r="J12" s="3">
+        <v>178800</v>
+      </c>
+      <c r="K12" s="3">
         <v>259000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>361100</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>1950500</v>
+        <v>3993900</v>
       </c>
       <c r="E15" s="3">
-        <v>2169500</v>
+        <v>1882900</v>
       </c>
       <c r="F15" s="3">
-        <v>1853400</v>
+        <v>2094300</v>
       </c>
       <c r="G15" s="3">
-        <v>6507100</v>
+        <v>1789100</v>
       </c>
       <c r="H15" s="3">
-        <v>3018700</v>
+        <v>6281500</v>
       </c>
       <c r="I15" s="3">
-        <v>2262100</v>
+        <v>2914000</v>
       </c>
       <c r="J15" s="3">
+        <v>2183700</v>
+      </c>
+      <c r="K15" s="3">
         <v>1942200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1935200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>15174000</v>
+        <v>15971200</v>
       </c>
       <c r="E17" s="3">
-        <v>13444100</v>
+        <v>14647900</v>
       </c>
       <c r="F17" s="3">
-        <v>8742200</v>
+        <v>12978000</v>
       </c>
       <c r="G17" s="3">
-        <v>16196300</v>
+        <v>8439100</v>
       </c>
       <c r="H17" s="3">
-        <v>16680300</v>
+        <v>15634700</v>
       </c>
       <c r="I17" s="3">
-        <v>15493900</v>
+        <v>16102000</v>
       </c>
       <c r="J17" s="3">
+        <v>14956700</v>
+      </c>
+      <c r="K17" s="3">
         <v>14510000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>14291400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1577100</v>
+        <v>-1449700</v>
       </c>
       <c r="E18" s="3">
-        <v>545000</v>
+        <v>1522400</v>
       </c>
       <c r="F18" s="3">
-        <v>983100</v>
+        <v>526100</v>
       </c>
       <c r="G18" s="3">
-        <v>-3873900</v>
+        <v>949100</v>
       </c>
       <c r="H18" s="3">
-        <v>1455900</v>
+        <v>-3739500</v>
       </c>
       <c r="I18" s="3">
-        <v>2058900</v>
+        <v>1405400</v>
       </c>
       <c r="J18" s="3">
+        <v>1987500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2243300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2576600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>33900</v>
+        <v>47200</v>
       </c>
       <c r="E20" s="3">
-        <v>-18100</v>
+        <v>32700</v>
       </c>
       <c r="F20" s="3">
-        <v>-73800</v>
+        <v>-17400</v>
       </c>
       <c r="G20" s="3">
-        <v>-49700</v>
+        <v>-71200</v>
       </c>
       <c r="H20" s="3">
-        <v>-42200</v>
+        <v>-48000</v>
       </c>
       <c r="I20" s="3">
-        <v>-45200</v>
+        <v>-40700</v>
       </c>
       <c r="J20" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-49900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3562300</v>
+        <v>2594600</v>
       </c>
       <c r="E21" s="3">
-        <v>2697500</v>
+        <v>3439500</v>
       </c>
       <c r="F21" s="3">
-        <v>2763600</v>
+        <v>2604700</v>
       </c>
       <c r="G21" s="3">
-        <v>2586500</v>
+        <v>2668400</v>
       </c>
       <c r="H21" s="3">
-        <v>4433800</v>
+        <v>2499000</v>
       </c>
       <c r="I21" s="3">
-        <v>4276900</v>
+        <v>4281100</v>
       </c>
       <c r="J21" s="3">
+        <v>4129300</v>
+      </c>
+      <c r="K21" s="3">
         <v>4185600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4471100</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>159600</v>
+        <v>173700</v>
       </c>
       <c r="E22" s="3">
-        <v>207800</v>
+        <v>154100</v>
       </c>
       <c r="F22" s="3">
-        <v>194200</v>
+        <v>200600</v>
       </c>
       <c r="G22" s="3">
-        <v>119700</v>
+        <v>187500</v>
       </c>
       <c r="H22" s="3">
-        <v>70800</v>
+        <v>115500</v>
       </c>
       <c r="I22" s="3">
-        <v>35400</v>
+        <v>68300</v>
       </c>
       <c r="J22" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K22" s="3">
         <v>107600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>114500</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1451400</v>
+        <v>-1576200</v>
       </c>
       <c r="E23" s="3">
-        <v>319200</v>
+        <v>1401100</v>
       </c>
       <c r="F23" s="3">
-        <v>715200</v>
+        <v>308100</v>
       </c>
       <c r="G23" s="3">
-        <v>-4043200</v>
+        <v>690400</v>
       </c>
       <c r="H23" s="3">
-        <v>1343000</v>
+        <v>-3903100</v>
       </c>
       <c r="I23" s="3">
-        <v>1978300</v>
+        <v>1296400</v>
       </c>
       <c r="J23" s="3">
+        <v>1909700</v>
+      </c>
+      <c r="K23" s="3">
         <v>2134900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2412200</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>354600</v>
+        <v>-580600</v>
       </c>
       <c r="E24" s="3">
-        <v>55700</v>
+        <v>342300</v>
       </c>
       <c r="F24" s="3">
-        <v>21100</v>
+        <v>53800</v>
       </c>
       <c r="G24" s="3">
-        <v>-1145000</v>
+        <v>20300</v>
       </c>
       <c r="H24" s="3">
-        <v>396000</v>
+        <v>-1105300</v>
       </c>
       <c r="I24" s="3">
-        <v>601500</v>
+        <v>382200</v>
       </c>
       <c r="J24" s="3">
+        <v>580600</v>
+      </c>
+      <c r="K24" s="3">
         <v>612800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>703700</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1096800</v>
+        <v>-995600</v>
       </c>
       <c r="E26" s="3">
-        <v>263500</v>
+        <v>1058800</v>
       </c>
       <c r="F26" s="3">
-        <v>694100</v>
+        <v>254300</v>
       </c>
       <c r="G26" s="3">
-        <v>-2898200</v>
+        <v>670000</v>
       </c>
       <c r="H26" s="3">
-        <v>947000</v>
+        <v>-2797800</v>
       </c>
       <c r="I26" s="3">
-        <v>1376900</v>
+        <v>914200</v>
       </c>
       <c r="J26" s="3">
+        <v>1329100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1522100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1708500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1070500</v>
+        <v>-1021000</v>
       </c>
       <c r="E27" s="3">
-        <v>237900</v>
+        <v>1033400</v>
       </c>
       <c r="F27" s="3">
-        <v>667000</v>
+        <v>229600</v>
       </c>
       <c r="G27" s="3">
-        <v>-2925300</v>
+        <v>643800</v>
       </c>
       <c r="H27" s="3">
-        <v>937200</v>
+        <v>-2823900</v>
       </c>
       <c r="I27" s="3">
-        <v>1367100</v>
+        <v>904700</v>
       </c>
       <c r="J27" s="3">
+        <v>1319700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1512400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>328200</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>316800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-33900</v>
+        <v>-47200</v>
       </c>
       <c r="E32" s="3">
-        <v>18100</v>
+        <v>-32700</v>
       </c>
       <c r="F32" s="3">
-        <v>73800</v>
+        <v>17400</v>
       </c>
       <c r="G32" s="3">
-        <v>49700</v>
+        <v>71200</v>
       </c>
       <c r="H32" s="3">
-        <v>42200</v>
+        <v>48000</v>
       </c>
       <c r="I32" s="3">
-        <v>45200</v>
+        <v>40700</v>
       </c>
       <c r="J32" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>49900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1070500</v>
+        <v>-1021000</v>
       </c>
       <c r="E33" s="3">
-        <v>566100</v>
+        <v>1033400</v>
       </c>
       <c r="F33" s="3">
-        <v>667000</v>
+        <v>546500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2925300</v>
+        <v>643800</v>
       </c>
       <c r="H33" s="3">
-        <v>937200</v>
+        <v>-2823900</v>
       </c>
       <c r="I33" s="3">
-        <v>1367100</v>
+        <v>904700</v>
       </c>
       <c r="J33" s="3">
+        <v>1319700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1512400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1070500</v>
+        <v>-1021000</v>
       </c>
       <c r="E35" s="3">
-        <v>566100</v>
+        <v>1033400</v>
       </c>
       <c r="F35" s="3">
-        <v>667000</v>
+        <v>546500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2925300</v>
+        <v>643800</v>
       </c>
       <c r="H35" s="3">
-        <v>937200</v>
+        <v>-2823900</v>
       </c>
       <c r="I35" s="3">
-        <v>1367100</v>
+        <v>904700</v>
       </c>
       <c r="J35" s="3">
+        <v>1319700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1512400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2157500</v>
+        <v>1289100</v>
       </c>
       <c r="E41" s="3">
-        <v>1891800</v>
+        <v>2081500</v>
       </c>
       <c r="F41" s="3">
-        <v>992900</v>
+        <v>1825100</v>
       </c>
       <c r="G41" s="3">
-        <v>52700</v>
+        <v>958000</v>
       </c>
       <c r="H41" s="3">
-        <v>953800</v>
+        <v>50800</v>
       </c>
       <c r="I41" s="3">
-        <v>229600</v>
+        <v>920200</v>
       </c>
       <c r="J41" s="3">
+        <v>221500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1715600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1610,228 +1699,252 @@
       <c r="H42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="3">
-        <v>596200</v>
+      <c r="I42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J42" s="3">
+        <v>575200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1428800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1412800</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1072000</v>
+        <v>1082900</v>
       </c>
       <c r="E43" s="3">
-        <v>1003500</v>
+        <v>1034200</v>
       </c>
       <c r="F43" s="3">
-        <v>913100</v>
+        <v>968100</v>
       </c>
       <c r="G43" s="3">
-        <v>953800</v>
+        <v>881000</v>
       </c>
       <c r="H43" s="3">
-        <v>1222500</v>
+        <v>920200</v>
       </c>
       <c r="I43" s="3">
-        <v>1428000</v>
+        <v>1179500</v>
       </c>
       <c r="J43" s="3">
+        <v>1377700</v>
+      </c>
+      <c r="K43" s="3">
         <v>3252800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1107800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>927400</v>
+        <v>1079200</v>
       </c>
       <c r="E44" s="3">
-        <v>1139000</v>
+        <v>894800</v>
       </c>
       <c r="F44" s="3">
-        <v>1172800</v>
+        <v>1098800</v>
       </c>
       <c r="G44" s="3">
-        <v>938700</v>
+        <v>1131500</v>
       </c>
       <c r="H44" s="3">
-        <v>1042600</v>
+        <v>905700</v>
       </c>
       <c r="I44" s="3">
-        <v>1364100</v>
+        <v>1005900</v>
       </c>
       <c r="J44" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="K44" s="3">
         <v>3816600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1581800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>125000</v>
+        <v>135100</v>
       </c>
       <c r="E45" s="3">
-        <v>193500</v>
+        <v>120600</v>
       </c>
       <c r="F45" s="3">
-        <v>171600</v>
+        <v>186700</v>
       </c>
       <c r="G45" s="3">
-        <v>248400</v>
+        <v>165600</v>
       </c>
       <c r="H45" s="3">
-        <v>164900</v>
+        <v>239700</v>
       </c>
       <c r="I45" s="3">
-        <v>83600</v>
+        <v>159100</v>
       </c>
       <c r="J45" s="3">
+        <v>80600</v>
+      </c>
+      <c r="K45" s="3">
         <v>79000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>78400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4281900</v>
+        <v>3586300</v>
       </c>
       <c r="E46" s="3">
-        <v>4227700</v>
+        <v>4131000</v>
       </c>
       <c r="F46" s="3">
-        <v>3250500</v>
+        <v>4078700</v>
       </c>
       <c r="G46" s="3">
-        <v>2193600</v>
+        <v>3136000</v>
       </c>
       <c r="H46" s="3">
-        <v>3383800</v>
+        <v>2116400</v>
       </c>
       <c r="I46" s="3">
-        <v>3701500</v>
+        <v>3264600</v>
       </c>
       <c r="J46" s="3">
+        <v>3571100</v>
+      </c>
+      <c r="K46" s="3">
         <v>4135100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4182200</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1175900</v>
+        <v>1012400</v>
       </c>
       <c r="E47" s="3">
-        <v>1114100</v>
+        <v>1134400</v>
       </c>
       <c r="F47" s="3">
-        <v>1023800</v>
+        <v>1074900</v>
       </c>
       <c r="G47" s="3">
-        <v>352300</v>
+        <v>987700</v>
       </c>
       <c r="H47" s="3">
-        <v>178400</v>
+        <v>339900</v>
       </c>
       <c r="I47" s="3">
-        <v>217600</v>
+        <v>172100</v>
       </c>
       <c r="J47" s="3">
+        <v>209900</v>
+      </c>
+      <c r="K47" s="3">
         <v>557100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>881200</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20172500</v>
+        <v>18496600</v>
       </c>
       <c r="E48" s="3">
-        <v>18756500</v>
+        <v>19461900</v>
       </c>
       <c r="F48" s="3">
-        <v>19315800</v>
+        <v>18095700</v>
       </c>
       <c r="G48" s="3">
-        <v>21623900</v>
+        <v>18635400</v>
       </c>
       <c r="H48" s="3">
-        <v>24944400</v>
+        <v>20862100</v>
       </c>
       <c r="I48" s="3">
-        <v>23256700</v>
+        <v>24065700</v>
       </c>
       <c r="J48" s="3">
+        <v>22437400</v>
+      </c>
+      <c r="K48" s="3">
         <v>25618200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19225000</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>519400</v>
+        <v>476400</v>
       </c>
       <c r="E49" s="3">
-        <v>476500</v>
+        <v>501100</v>
       </c>
       <c r="F49" s="3">
-        <v>511100</v>
+        <v>459700</v>
       </c>
       <c r="G49" s="3">
-        <v>527000</v>
+        <v>493100</v>
       </c>
       <c r="H49" s="3">
-        <v>561600</v>
+        <v>508400</v>
       </c>
       <c r="I49" s="3">
-        <v>525400</v>
+        <v>541800</v>
       </c>
       <c r="J49" s="3">
+        <v>506900</v>
+      </c>
+      <c r="K49" s="3">
         <v>499100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>517800</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>367400</v>
+        <v>483700</v>
       </c>
       <c r="E52" s="3">
-        <v>212300</v>
+        <v>354400</v>
       </c>
       <c r="F52" s="3">
-        <v>183700</v>
+        <v>204800</v>
       </c>
       <c r="G52" s="3">
-        <v>187400</v>
+        <v>177200</v>
       </c>
       <c r="H52" s="3">
-        <v>176200</v>
+        <v>180800</v>
       </c>
       <c r="I52" s="3">
-        <v>79800</v>
+        <v>169900</v>
       </c>
       <c r="J52" s="3">
+        <v>77000</v>
+      </c>
+      <c r="K52" s="3">
         <v>228800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>104500</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26517000</v>
+        <v>24055500</v>
       </c>
       <c r="E54" s="3">
-        <v>24787100</v>
+        <v>25582900</v>
       </c>
       <c r="F54" s="3">
-        <v>24285000</v>
+        <v>23913900</v>
       </c>
       <c r="G54" s="3">
-        <v>24884200</v>
+        <v>23429500</v>
       </c>
       <c r="H54" s="3">
-        <v>29244400</v>
+        <v>24007600</v>
       </c>
       <c r="I54" s="3">
-        <v>27781000</v>
+        <v>28214100</v>
       </c>
       <c r="J54" s="3">
+        <v>26802300</v>
+      </c>
+      <c r="K54" s="3">
         <v>26468800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24910600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>843900</v>
+        <v>855500</v>
       </c>
       <c r="E57" s="3">
-        <v>715200</v>
+        <v>814100</v>
       </c>
       <c r="F57" s="3">
-        <v>573600</v>
+        <v>690000</v>
       </c>
       <c r="G57" s="3">
-        <v>478800</v>
+        <v>553400</v>
       </c>
       <c r="H57" s="3">
-        <v>414000</v>
+        <v>461900</v>
       </c>
       <c r="I57" s="3">
-        <v>61700</v>
+        <v>399400</v>
       </c>
       <c r="J57" s="3">
+        <v>59600</v>
+      </c>
+      <c r="K57" s="3">
         <v>2451800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>56800</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1229300</v>
+        <v>769100</v>
       </c>
       <c r="E58" s="3">
-        <v>150600</v>
+        <v>1186000</v>
       </c>
       <c r="F58" s="3">
-        <v>563800</v>
+        <v>145300</v>
       </c>
       <c r="G58" s="3">
-        <v>908600</v>
+        <v>544000</v>
       </c>
       <c r="H58" s="3">
-        <v>2049800</v>
+        <v>876600</v>
       </c>
       <c r="I58" s="3">
-        <v>600700</v>
+        <v>1977600</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>579600</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>312700</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1686200</v>
+        <v>1742300</v>
       </c>
       <c r="E59" s="3">
-        <v>1774300</v>
+        <v>1626800</v>
       </c>
       <c r="F59" s="3">
-        <v>1266200</v>
+        <v>1711800</v>
       </c>
       <c r="G59" s="3">
-        <v>1500300</v>
+        <v>1221600</v>
       </c>
       <c r="H59" s="3">
-        <v>1909100</v>
+        <v>1447500</v>
       </c>
       <c r="I59" s="3">
-        <v>2471400</v>
+        <v>1841800</v>
       </c>
       <c r="J59" s="3">
+        <v>2384300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4350400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2234800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3759400</v>
+        <v>3367000</v>
       </c>
       <c r="E60" s="3">
-        <v>2640000</v>
+        <v>3627000</v>
       </c>
       <c r="F60" s="3">
-        <v>2403700</v>
+        <v>2547000</v>
       </c>
       <c r="G60" s="3">
-        <v>2887700</v>
+        <v>2319000</v>
       </c>
       <c r="H60" s="3">
-        <v>4373000</v>
+        <v>2786000</v>
       </c>
       <c r="I60" s="3">
-        <v>3133900</v>
+        <v>4218900</v>
       </c>
       <c r="J60" s="3">
+        <v>3023500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2327600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2604300</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3448500</v>
+        <v>4301700</v>
       </c>
       <c r="E61" s="3">
-        <v>4319500</v>
+        <v>3327000</v>
       </c>
       <c r="F61" s="3">
-        <v>3782000</v>
+        <v>4167300</v>
       </c>
       <c r="G61" s="3">
-        <v>4535600</v>
+        <v>3648800</v>
       </c>
       <c r="H61" s="3">
-        <v>3282900</v>
+        <v>4375800</v>
       </c>
       <c r="I61" s="3">
-        <v>2523400</v>
+        <v>3167300</v>
       </c>
       <c r="J61" s="3">
+        <v>2434500</v>
+      </c>
+      <c r="K61" s="3">
         <v>2972800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2717200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4543800</v>
+        <v>3825300</v>
       </c>
       <c r="E62" s="3">
-        <v>4302200</v>
+        <v>4383800</v>
       </c>
       <c r="F62" s="3">
-        <v>4829900</v>
+        <v>4150600</v>
       </c>
       <c r="G62" s="3">
-        <v>4975200</v>
+        <v>4659700</v>
       </c>
       <c r="H62" s="3">
-        <v>6099900</v>
+        <v>4799900</v>
       </c>
       <c r="I62" s="3">
-        <v>7009200</v>
+        <v>5885000</v>
       </c>
       <c r="J62" s="3">
+        <v>6762300</v>
+      </c>
+      <c r="K62" s="3">
         <v>7120600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5935300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11760800</v>
+        <v>11504100</v>
       </c>
       <c r="E66" s="3">
-        <v>11270000</v>
+        <v>11346500</v>
       </c>
       <c r="F66" s="3">
-        <v>11023900</v>
+        <v>10873000</v>
       </c>
       <c r="G66" s="3">
-        <v>12398500</v>
+        <v>10635500</v>
       </c>
       <c r="H66" s="3">
-        <v>13755700</v>
+        <v>11961700</v>
       </c>
       <c r="I66" s="3">
-        <v>12666400</v>
+        <v>13271100</v>
       </c>
       <c r="J66" s="3">
+        <v>12220200</v>
+      </c>
+      <c r="K66" s="3">
         <v>12044600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11256900</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,39 +2545,45 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>657900</v>
+        <v>634800</v>
       </c>
       <c r="E70" s="3">
-        <v>657900</v>
+        <v>634800</v>
       </c>
       <c r="F70" s="3">
-        <v>657900</v>
+        <v>634800</v>
       </c>
       <c r="G70" s="3">
-        <v>657900</v>
+        <v>634800</v>
       </c>
       <c r="H70" s="3">
-        <v>402000</v>
+        <v>634800</v>
       </c>
       <c r="I70" s="3">
+        <v>387800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>211300</v>
+      </c>
+      <c r="K70" s="3">
         <v>219100</v>
       </c>
-      <c r="J70" s="3">
-        <v>219100</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>223600</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7733400</v>
+        <v>6075200</v>
       </c>
       <c r="E72" s="3">
-        <v>6930900</v>
+        <v>7461000</v>
       </c>
       <c r="F72" s="3">
-        <v>6366300</v>
+        <v>6686800</v>
       </c>
       <c r="G72" s="3">
-        <v>5712900</v>
+        <v>6142100</v>
       </c>
       <c r="H72" s="3">
-        <v>9534800</v>
+        <v>5511700</v>
       </c>
       <c r="I72" s="3">
-        <v>9496400</v>
+        <v>9198900</v>
       </c>
       <c r="J72" s="3">
+        <v>9161900</v>
+      </c>
+      <c r="K72" s="3">
         <v>8995800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8569600</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14098300</v>
+        <v>11916600</v>
       </c>
       <c r="E76" s="3">
-        <v>12859200</v>
+        <v>13601500</v>
       </c>
       <c r="F76" s="3">
-        <v>12603200</v>
+        <v>12406100</v>
       </c>
       <c r="G76" s="3">
-        <v>11827900</v>
+        <v>12159200</v>
       </c>
       <c r="H76" s="3">
-        <v>15086700</v>
+        <v>11411100</v>
       </c>
       <c r="I76" s="3">
-        <v>14895400</v>
+        <v>14555200</v>
       </c>
       <c r="J76" s="3">
+        <v>14370700</v>
+      </c>
+      <c r="K76" s="3">
         <v>14205100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13430200</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1070500</v>
+        <v>-1021000</v>
       </c>
       <c r="E81" s="3">
-        <v>566100</v>
+        <v>1033400</v>
       </c>
       <c r="F81" s="3">
-        <v>667000</v>
+        <v>546500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2925300</v>
+        <v>643800</v>
       </c>
       <c r="H81" s="3">
-        <v>937200</v>
+        <v>-2823900</v>
       </c>
       <c r="I81" s="3">
-        <v>1367100</v>
+        <v>904700</v>
       </c>
       <c r="J81" s="3">
+        <v>1319700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1512400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1950500</v>
+        <v>3993900</v>
       </c>
       <c r="E83" s="3">
-        <v>2169500</v>
+        <v>1882900</v>
       </c>
       <c r="F83" s="3">
-        <v>1853400</v>
+        <v>2094300</v>
       </c>
       <c r="G83" s="3">
-        <v>6507100</v>
+        <v>1789100</v>
       </c>
       <c r="H83" s="3">
-        <v>3018700</v>
+        <v>6281500</v>
       </c>
       <c r="I83" s="3">
-        <v>2262100</v>
+        <v>2914000</v>
       </c>
       <c r="J83" s="3">
+        <v>2183700</v>
+      </c>
+      <c r="K83" s="3">
         <v>1942200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1935200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3112000</v>
+        <v>2159000</v>
       </c>
       <c r="E89" s="3">
-        <v>2788300</v>
+        <v>3004100</v>
       </c>
       <c r="F89" s="3">
-        <v>1483700</v>
+        <v>2691700</v>
       </c>
       <c r="G89" s="3">
-        <v>2830500</v>
+        <v>1432300</v>
       </c>
       <c r="H89" s="3">
-        <v>4204300</v>
+        <v>2732400</v>
       </c>
       <c r="I89" s="3">
-        <v>3496700</v>
+        <v>4058600</v>
       </c>
       <c r="J89" s="3">
+        <v>3375500</v>
+      </c>
+      <c r="K89" s="3">
         <v>3909200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3911800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2693500</v>
+        <v>-2494000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1671200</v>
+        <v>-2600100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1283500</v>
+        <v>-1613300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2262100</v>
+        <v>-1239000</v>
       </c>
       <c r="H91" s="3">
-        <v>-3781300</v>
+        <v>-2183700</v>
       </c>
       <c r="I91" s="3">
-        <v>-3785000</v>
+        <v>-3650200</v>
       </c>
       <c r="J91" s="3">
+        <v>-3653800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3538900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3687500</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2650600</v>
+        <v>-2323200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2099500</v>
+        <v>-2558700</v>
       </c>
       <c r="F94" s="3">
-        <v>475800</v>
+        <v>-2026700</v>
       </c>
       <c r="G94" s="3">
-        <v>-3626200</v>
+        <v>459300</v>
       </c>
       <c r="H94" s="3">
-        <v>-4082400</v>
+        <v>-3500500</v>
       </c>
       <c r="I94" s="3">
-        <v>-3554700</v>
+        <v>-3940800</v>
       </c>
       <c r="J94" s="3">
+        <v>-3431400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3639000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3395600</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-329000</v>
+        <v>-391000</v>
       </c>
       <c r="E96" s="3">
-        <v>-25600</v>
+        <v>-317600</v>
       </c>
       <c r="F96" s="3">
-        <v>-20300</v>
+        <v>-24700</v>
       </c>
       <c r="G96" s="3">
-        <v>-905600</v>
+        <v>-19600</v>
       </c>
       <c r="H96" s="3">
-        <v>-889800</v>
+        <v>-874200</v>
       </c>
       <c r="I96" s="3">
-        <v>-891300</v>
+        <v>-858900</v>
       </c>
       <c r="J96" s="3">
+        <v>-860400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-432100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-385700</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-244700</v>
+        <v>-593700</v>
       </c>
       <c r="E100" s="3">
-        <v>273300</v>
+        <v>-236200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1025300</v>
+        <v>263800</v>
       </c>
       <c r="G100" s="3">
-        <v>-158100</v>
+        <v>-989800</v>
       </c>
       <c r="H100" s="3">
-        <v>-4500</v>
+        <v>-152600</v>
       </c>
       <c r="I100" s="3">
-        <v>-636900</v>
+        <v>-4400</v>
       </c>
       <c r="J100" s="3">
+        <v>-614800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-122000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>699100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>48900</v>
+        <v>-34900</v>
       </c>
       <c r="E101" s="3">
-        <v>-63200</v>
+        <v>47200</v>
       </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>-61000</v>
       </c>
       <c r="G101" s="3">
-        <v>52700</v>
+        <v>5800</v>
       </c>
       <c r="H101" s="3">
-        <v>10500</v>
+        <v>50900</v>
       </c>
       <c r="I101" s="3">
-        <v>-3800</v>
+        <v>10200</v>
       </c>
       <c r="J101" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5400</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>265700</v>
+        <v>-792800</v>
       </c>
       <c r="E102" s="3">
-        <v>898800</v>
+        <v>256500</v>
       </c>
       <c r="F102" s="3">
-        <v>940200</v>
+        <v>867700</v>
       </c>
       <c r="G102" s="3">
-        <v>-901100</v>
+        <v>907600</v>
       </c>
       <c r="H102" s="3">
-        <v>128000</v>
+        <v>-869800</v>
       </c>
       <c r="I102" s="3">
-        <v>-698600</v>
+        <v>123500</v>
       </c>
       <c r="J102" s="3">
+        <v>-674400</v>
+      </c>
+      <c r="K102" s="3">
         <v>138500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1220700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/HUSKF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HUSKF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14521400</v>
+        <v>15208900</v>
       </c>
       <c r="E8" s="3">
-        <v>16170300</v>
+        <v>16935800</v>
       </c>
       <c r="F8" s="3">
-        <v>13504100</v>
+        <v>14143300</v>
       </c>
       <c r="G8" s="3">
-        <v>9388100</v>
+        <v>9832500</v>
       </c>
       <c r="H8" s="3">
-        <v>11895200</v>
+        <v>12458300</v>
       </c>
       <c r="I8" s="3">
-        <v>17507400</v>
+        <v>18336200</v>
       </c>
       <c r="J8" s="3">
-        <v>16944200</v>
+        <v>17746300</v>
       </c>
       <c r="K8" s="3">
         <v>16753300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11506400</v>
+        <v>12051100</v>
       </c>
       <c r="E9" s="3">
-        <v>12613900</v>
+        <v>13211000</v>
       </c>
       <c r="F9" s="3">
-        <v>10351700</v>
+        <v>10841700</v>
       </c>
       <c r="G9" s="3">
-        <v>7325000</v>
+        <v>7671800</v>
       </c>
       <c r="H9" s="3">
-        <v>9004400</v>
+        <v>9430700</v>
       </c>
       <c r="I9" s="3">
-        <v>12737400</v>
+        <v>13340400</v>
       </c>
       <c r="J9" s="3">
-        <v>12252000</v>
+        <v>12832000</v>
       </c>
       <c r="K9" s="3">
         <v>12064200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3015000</v>
+        <v>3157800</v>
       </c>
       <c r="E10" s="3">
-        <v>3556400</v>
+        <v>3724800</v>
       </c>
       <c r="F10" s="3">
-        <v>3152400</v>
+        <v>3301600</v>
       </c>
       <c r="G10" s="3">
-        <v>2063100</v>
+        <v>2160700</v>
       </c>
       <c r="H10" s="3">
-        <v>2890800</v>
+        <v>3027600</v>
       </c>
       <c r="I10" s="3">
-        <v>4770000</v>
+        <v>4995800</v>
       </c>
       <c r="J10" s="3">
-        <v>4692200</v>
+        <v>4914400</v>
       </c>
       <c r="K10" s="3">
         <v>4689100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>397500</v>
+        <v>416300</v>
       </c>
       <c r="E12" s="3">
-        <v>108300</v>
+        <v>113400</v>
       </c>
       <c r="F12" s="3">
-        <v>106100</v>
+        <v>111100</v>
       </c>
       <c r="G12" s="3">
-        <v>136600</v>
+        <v>143100</v>
       </c>
       <c r="H12" s="3">
-        <v>324800</v>
+        <v>340200</v>
       </c>
       <c r="I12" s="3">
-        <v>155500</v>
+        <v>162900</v>
       </c>
       <c r="J12" s="3">
-        <v>178800</v>
+        <v>187200</v>
       </c>
       <c r="K12" s="3">
         <v>259000</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>3993900</v>
+        <v>4183000</v>
       </c>
       <c r="E15" s="3">
-        <v>1882900</v>
+        <v>1972000</v>
       </c>
       <c r="F15" s="3">
-        <v>2094300</v>
+        <v>2193500</v>
       </c>
       <c r="G15" s="3">
-        <v>1789100</v>
+        <v>1873800</v>
       </c>
       <c r="H15" s="3">
-        <v>6281500</v>
+        <v>6578900</v>
       </c>
       <c r="I15" s="3">
-        <v>2914000</v>
+        <v>3052000</v>
       </c>
       <c r="J15" s="3">
-        <v>2183700</v>
+        <v>2287100</v>
       </c>
       <c r="K15" s="3">
         <v>1942200</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>15971200</v>
+        <v>16727200</v>
       </c>
       <c r="E17" s="3">
-        <v>14647900</v>
+        <v>15341300</v>
       </c>
       <c r="F17" s="3">
-        <v>12978000</v>
+        <v>13592300</v>
       </c>
       <c r="G17" s="3">
-        <v>8439100</v>
+        <v>8838500</v>
       </c>
       <c r="H17" s="3">
-        <v>15634700</v>
+        <v>16374900</v>
       </c>
       <c r="I17" s="3">
-        <v>16102000</v>
+        <v>16864200</v>
       </c>
       <c r="J17" s="3">
-        <v>14956700</v>
+        <v>15664800</v>
       </c>
       <c r="K17" s="3">
         <v>14510000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1449700</v>
+        <v>-1518400</v>
       </c>
       <c r="E18" s="3">
-        <v>1522400</v>
+        <v>1594500</v>
       </c>
       <c r="F18" s="3">
-        <v>526100</v>
+        <v>551000</v>
       </c>
       <c r="G18" s="3">
-        <v>949100</v>
+        <v>994000</v>
       </c>
       <c r="H18" s="3">
-        <v>-3739500</v>
+        <v>-3916600</v>
       </c>
       <c r="I18" s="3">
-        <v>1405400</v>
+        <v>1471900</v>
       </c>
       <c r="J18" s="3">
-        <v>1987500</v>
+        <v>2081600</v>
       </c>
       <c r="K18" s="3">
         <v>2243300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>47200</v>
+        <v>49500</v>
       </c>
       <c r="E20" s="3">
-        <v>32700</v>
+        <v>34200</v>
       </c>
       <c r="F20" s="3">
-        <v>-17400</v>
+        <v>-18300</v>
       </c>
       <c r="G20" s="3">
-        <v>-71200</v>
+        <v>-74600</v>
       </c>
       <c r="H20" s="3">
-        <v>-48000</v>
+        <v>-50200</v>
       </c>
       <c r="I20" s="3">
-        <v>-40700</v>
+        <v>-42600</v>
       </c>
       <c r="J20" s="3">
-        <v>-43600</v>
+        <v>-45700</v>
       </c>
       <c r="K20" s="3">
         <v>-800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2594600</v>
+        <v>2704900</v>
       </c>
       <c r="E21" s="3">
-        <v>3439500</v>
+        <v>3596400</v>
       </c>
       <c r="F21" s="3">
-        <v>2604700</v>
+        <v>2721400</v>
       </c>
       <c r="G21" s="3">
-        <v>2668400</v>
+        <v>2789100</v>
       </c>
       <c r="H21" s="3">
-        <v>2499000</v>
+        <v>2597600</v>
       </c>
       <c r="I21" s="3">
-        <v>4281100</v>
+        <v>4474600</v>
       </c>
       <c r="J21" s="3">
-        <v>4129300</v>
+        <v>4318000</v>
       </c>
       <c r="K21" s="3">
         <v>4185600</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>173700</v>
+        <v>181900</v>
       </c>
       <c r="E22" s="3">
-        <v>154100</v>
+        <v>161400</v>
       </c>
       <c r="F22" s="3">
-        <v>200600</v>
+        <v>210100</v>
       </c>
       <c r="G22" s="3">
-        <v>187500</v>
+        <v>196400</v>
       </c>
       <c r="H22" s="3">
-        <v>115500</v>
+        <v>121000</v>
       </c>
       <c r="I22" s="3">
-        <v>68300</v>
+        <v>71500</v>
       </c>
       <c r="J22" s="3">
-        <v>34200</v>
+        <v>35800</v>
       </c>
       <c r="K22" s="3">
         <v>107600</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1576200</v>
+        <v>-1650800</v>
       </c>
       <c r="E23" s="3">
-        <v>1401100</v>
+        <v>1467400</v>
       </c>
       <c r="F23" s="3">
-        <v>308100</v>
+        <v>322700</v>
       </c>
       <c r="G23" s="3">
-        <v>690400</v>
+        <v>723000</v>
       </c>
       <c r="H23" s="3">
-        <v>-3903100</v>
+        <v>-4087800</v>
       </c>
       <c r="I23" s="3">
-        <v>1296400</v>
+        <v>1357800</v>
       </c>
       <c r="J23" s="3">
-        <v>1909700</v>
+        <v>2000100</v>
       </c>
       <c r="K23" s="3">
         <v>2134900</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-580600</v>
+        <v>-608100</v>
       </c>
       <c r="E24" s="3">
-        <v>342300</v>
+        <v>358500</v>
       </c>
       <c r="F24" s="3">
-        <v>53800</v>
+        <v>56300</v>
       </c>
       <c r="G24" s="3">
-        <v>20300</v>
+        <v>21300</v>
       </c>
       <c r="H24" s="3">
-        <v>-1105300</v>
+        <v>-1157600</v>
       </c>
       <c r="I24" s="3">
-        <v>382200</v>
+        <v>400300</v>
       </c>
       <c r="J24" s="3">
-        <v>580600</v>
+        <v>608100</v>
       </c>
       <c r="K24" s="3">
         <v>612800</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-995600</v>
+        <v>-1042700</v>
       </c>
       <c r="E26" s="3">
-        <v>1058800</v>
+        <v>1108900</v>
       </c>
       <c r="F26" s="3">
-        <v>254300</v>
+        <v>266400</v>
       </c>
       <c r="G26" s="3">
-        <v>670000</v>
+        <v>701700</v>
       </c>
       <c r="H26" s="3">
-        <v>-2797800</v>
+        <v>-2930200</v>
       </c>
       <c r="I26" s="3">
-        <v>914200</v>
+        <v>957500</v>
       </c>
       <c r="J26" s="3">
-        <v>1329100</v>
+        <v>1392000</v>
       </c>
       <c r="K26" s="3">
         <v>1522100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1021000</v>
+        <v>-1069300</v>
       </c>
       <c r="E27" s="3">
-        <v>1033400</v>
+        <v>1082300</v>
       </c>
       <c r="F27" s="3">
-        <v>229600</v>
+        <v>240500</v>
       </c>
       <c r="G27" s="3">
-        <v>643800</v>
+        <v>674300</v>
       </c>
       <c r="H27" s="3">
-        <v>-2823900</v>
+        <v>-2957600</v>
       </c>
       <c r="I27" s="3">
-        <v>904700</v>
+        <v>947600</v>
       </c>
       <c r="J27" s="3">
-        <v>1319700</v>
+        <v>1382100</v>
       </c>
       <c r="K27" s="3">
         <v>1512400</v>
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="3">
-        <v>316800</v>
+        <v>331800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-47200</v>
+        <v>-49500</v>
       </c>
       <c r="E32" s="3">
-        <v>-32700</v>
+        <v>-34200</v>
       </c>
       <c r="F32" s="3">
-        <v>17400</v>
+        <v>18300</v>
       </c>
       <c r="G32" s="3">
-        <v>71200</v>
+        <v>74600</v>
       </c>
       <c r="H32" s="3">
-        <v>48000</v>
+        <v>50200</v>
       </c>
       <c r="I32" s="3">
-        <v>40700</v>
+        <v>42600</v>
       </c>
       <c r="J32" s="3">
-        <v>43600</v>
+        <v>45700</v>
       </c>
       <c r="K32" s="3">
         <v>800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1021000</v>
+        <v>-1069300</v>
       </c>
       <c r="E33" s="3">
-        <v>1033400</v>
+        <v>1082300</v>
       </c>
       <c r="F33" s="3">
-        <v>546500</v>
+        <v>572300</v>
       </c>
       <c r="G33" s="3">
-        <v>643800</v>
+        <v>674300</v>
       </c>
       <c r="H33" s="3">
-        <v>-2823900</v>
+        <v>-2957600</v>
       </c>
       <c r="I33" s="3">
-        <v>904700</v>
+        <v>947600</v>
       </c>
       <c r="J33" s="3">
-        <v>1319700</v>
+        <v>1382100</v>
       </c>
       <c r="K33" s="3">
         <v>1512400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1021000</v>
+        <v>-1069300</v>
       </c>
       <c r="E35" s="3">
-        <v>1033400</v>
+        <v>1082300</v>
       </c>
       <c r="F35" s="3">
-        <v>546500</v>
+        <v>572300</v>
       </c>
       <c r="G35" s="3">
-        <v>643800</v>
+        <v>674300</v>
       </c>
       <c r="H35" s="3">
-        <v>-2823900</v>
+        <v>-2957600</v>
       </c>
       <c r="I35" s="3">
-        <v>904700</v>
+        <v>947600</v>
       </c>
       <c r="J35" s="3">
-        <v>1319700</v>
+        <v>1382100</v>
       </c>
       <c r="K35" s="3">
         <v>1512400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1289100</v>
+        <v>1350900</v>
       </c>
       <c r="E41" s="3">
-        <v>2081500</v>
+        <v>2181300</v>
       </c>
       <c r="F41" s="3">
-        <v>1825100</v>
+        <v>1912600</v>
       </c>
       <c r="G41" s="3">
-        <v>958000</v>
+        <v>1003900</v>
       </c>
       <c r="H41" s="3">
-        <v>50800</v>
+        <v>53300</v>
       </c>
       <c r="I41" s="3">
-        <v>920200</v>
+        <v>964300</v>
       </c>
       <c r="J41" s="3">
-        <v>221500</v>
+        <v>232100</v>
       </c>
       <c r="K41" s="3">
         <v>1715600</v>
@@ -1703,7 +1703,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="3">
-        <v>575200</v>
+        <v>602800</v>
       </c>
       <c r="K42" s="3">
         <v>1428800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1082900</v>
+        <v>1134800</v>
       </c>
       <c r="E43" s="3">
-        <v>1034200</v>
+        <v>1083800</v>
       </c>
       <c r="F43" s="3">
-        <v>968100</v>
+        <v>1014500</v>
       </c>
       <c r="G43" s="3">
-        <v>881000</v>
+        <v>923200</v>
       </c>
       <c r="H43" s="3">
-        <v>920200</v>
+        <v>964300</v>
       </c>
       <c r="I43" s="3">
-        <v>1179500</v>
+        <v>1236000</v>
       </c>
       <c r="J43" s="3">
-        <v>1377700</v>
+        <v>1443800</v>
       </c>
       <c r="K43" s="3">
         <v>3252800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1079200</v>
+        <v>1131000</v>
       </c>
       <c r="E44" s="3">
-        <v>894800</v>
+        <v>937700</v>
       </c>
       <c r="F44" s="3">
-        <v>1098800</v>
+        <v>1151500</v>
       </c>
       <c r="G44" s="3">
-        <v>1131500</v>
+        <v>1185800</v>
       </c>
       <c r="H44" s="3">
-        <v>905700</v>
+        <v>949100</v>
       </c>
       <c r="I44" s="3">
-        <v>1005900</v>
+        <v>1054100</v>
       </c>
       <c r="J44" s="3">
-        <v>1316000</v>
+        <v>1379100</v>
       </c>
       <c r="K44" s="3">
         <v>3816600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135100</v>
+        <v>141600</v>
       </c>
       <c r="E45" s="3">
-        <v>120600</v>
+        <v>126300</v>
       </c>
       <c r="F45" s="3">
-        <v>186700</v>
+        <v>195600</v>
       </c>
       <c r="G45" s="3">
-        <v>165600</v>
+        <v>173500</v>
       </c>
       <c r="H45" s="3">
-        <v>239700</v>
+        <v>251200</v>
       </c>
       <c r="I45" s="3">
-        <v>159100</v>
+        <v>166700</v>
       </c>
       <c r="J45" s="3">
-        <v>80600</v>
+        <v>84500</v>
       </c>
       <c r="K45" s="3">
         <v>79000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3586300</v>
+        <v>3758300</v>
       </c>
       <c r="E46" s="3">
-        <v>4131000</v>
+        <v>4329100</v>
       </c>
       <c r="F46" s="3">
-        <v>4078700</v>
+        <v>4274300</v>
       </c>
       <c r="G46" s="3">
-        <v>3136000</v>
+        <v>3286400</v>
       </c>
       <c r="H46" s="3">
-        <v>2116400</v>
+        <v>2217800</v>
       </c>
       <c r="I46" s="3">
-        <v>3264600</v>
+        <v>3421100</v>
       </c>
       <c r="J46" s="3">
-        <v>3571100</v>
+        <v>3742300</v>
       </c>
       <c r="K46" s="3">
         <v>4135100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1012400</v>
+        <v>1061000</v>
       </c>
       <c r="E47" s="3">
-        <v>1134400</v>
+        <v>1188800</v>
       </c>
       <c r="F47" s="3">
-        <v>1074900</v>
+        <v>1126400</v>
       </c>
       <c r="G47" s="3">
-        <v>987700</v>
+        <v>1035100</v>
       </c>
       <c r="H47" s="3">
-        <v>339900</v>
+        <v>356200</v>
       </c>
       <c r="I47" s="3">
-        <v>172100</v>
+        <v>180400</v>
       </c>
       <c r="J47" s="3">
-        <v>209900</v>
+        <v>220000</v>
       </c>
       <c r="K47" s="3">
         <v>557100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18496600</v>
+        <v>19383400</v>
       </c>
       <c r="E48" s="3">
-        <v>19461900</v>
+        <v>20394900</v>
       </c>
       <c r="F48" s="3">
-        <v>18095700</v>
+        <v>18963300</v>
       </c>
       <c r="G48" s="3">
-        <v>18635400</v>
+        <v>19528800</v>
       </c>
       <c r="H48" s="3">
-        <v>20862100</v>
+        <v>21862300</v>
       </c>
       <c r="I48" s="3">
-        <v>24065700</v>
+        <v>25219500</v>
       </c>
       <c r="J48" s="3">
-        <v>22437400</v>
+        <v>23513100</v>
       </c>
       <c r="K48" s="3">
         <v>25618200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>476400</v>
+        <v>499300</v>
       </c>
       <c r="E49" s="3">
-        <v>501100</v>
+        <v>525200</v>
       </c>
       <c r="F49" s="3">
-        <v>459700</v>
+        <v>481800</v>
       </c>
       <c r="G49" s="3">
-        <v>493100</v>
+        <v>516800</v>
       </c>
       <c r="H49" s="3">
-        <v>508400</v>
+        <v>532800</v>
       </c>
       <c r="I49" s="3">
-        <v>541800</v>
+        <v>567800</v>
       </c>
       <c r="J49" s="3">
-        <v>506900</v>
+        <v>531200</v>
       </c>
       <c r="K49" s="3">
         <v>499100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>483700</v>
+        <v>506900</v>
       </c>
       <c r="E52" s="3">
-        <v>354400</v>
+        <v>371400</v>
       </c>
       <c r="F52" s="3">
-        <v>204800</v>
+        <v>214600</v>
       </c>
       <c r="G52" s="3">
-        <v>177200</v>
+        <v>185700</v>
       </c>
       <c r="H52" s="3">
-        <v>180800</v>
+        <v>189500</v>
       </c>
       <c r="I52" s="3">
-        <v>169900</v>
+        <v>178100</v>
       </c>
       <c r="J52" s="3">
-        <v>77000</v>
+        <v>80700</v>
       </c>
       <c r="K52" s="3">
         <v>228800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>24055500</v>
+        <v>25208800</v>
       </c>
       <c r="E54" s="3">
-        <v>25582900</v>
+        <v>26809400</v>
       </c>
       <c r="F54" s="3">
-        <v>23913900</v>
+        <v>25060400</v>
       </c>
       <c r="G54" s="3">
-        <v>23429500</v>
+        <v>24552800</v>
       </c>
       <c r="H54" s="3">
-        <v>24007600</v>
+        <v>25158600</v>
       </c>
       <c r="I54" s="3">
-        <v>28214100</v>
+        <v>29566800</v>
       </c>
       <c r="J54" s="3">
-        <v>26802300</v>
+        <v>28087300</v>
       </c>
       <c r="K54" s="3">
         <v>26468800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>855500</v>
+        <v>896600</v>
       </c>
       <c r="E57" s="3">
-        <v>814100</v>
+        <v>853200</v>
       </c>
       <c r="F57" s="3">
-        <v>690000</v>
+        <v>723000</v>
       </c>
       <c r="G57" s="3">
-        <v>553400</v>
+        <v>580000</v>
       </c>
       <c r="H57" s="3">
-        <v>461900</v>
+        <v>484100</v>
       </c>
       <c r="I57" s="3">
-        <v>399400</v>
+        <v>418600</v>
       </c>
       <c r="J57" s="3">
-        <v>59600</v>
+        <v>62400</v>
       </c>
       <c r="K57" s="3">
         <v>2451800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>769100</v>
+        <v>806000</v>
       </c>
       <c r="E58" s="3">
-        <v>1186000</v>
+        <v>1242900</v>
       </c>
       <c r="F58" s="3">
-        <v>145300</v>
+        <v>152200</v>
       </c>
       <c r="G58" s="3">
-        <v>544000</v>
+        <v>570100</v>
       </c>
       <c r="H58" s="3">
-        <v>876600</v>
+        <v>918600</v>
       </c>
       <c r="I58" s="3">
-        <v>1977600</v>
+        <v>2072400</v>
       </c>
       <c r="J58" s="3">
-        <v>579600</v>
+        <v>607300</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1742300</v>
+        <v>1825900</v>
       </c>
       <c r="E59" s="3">
-        <v>1626800</v>
+        <v>1704800</v>
       </c>
       <c r="F59" s="3">
-        <v>1711800</v>
+        <v>1793900</v>
       </c>
       <c r="G59" s="3">
-        <v>1221600</v>
+        <v>1280200</v>
       </c>
       <c r="H59" s="3">
-        <v>1447500</v>
+        <v>1516900</v>
       </c>
       <c r="I59" s="3">
-        <v>1841800</v>
+        <v>1930100</v>
       </c>
       <c r="J59" s="3">
-        <v>2384300</v>
+        <v>2498700</v>
       </c>
       <c r="K59" s="3">
         <v>4350400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3367000</v>
+        <v>3528400</v>
       </c>
       <c r="E60" s="3">
-        <v>3627000</v>
+        <v>3800900</v>
       </c>
       <c r="F60" s="3">
-        <v>2547000</v>
+        <v>2669100</v>
       </c>
       <c r="G60" s="3">
-        <v>2319000</v>
+        <v>2430200</v>
       </c>
       <c r="H60" s="3">
-        <v>2786000</v>
+        <v>2919500</v>
       </c>
       <c r="I60" s="3">
-        <v>4218900</v>
+        <v>4421200</v>
       </c>
       <c r="J60" s="3">
-        <v>3023500</v>
+        <v>3168400</v>
       </c>
       <c r="K60" s="3">
         <v>2327600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4301700</v>
+        <v>4507900</v>
       </c>
       <c r="E61" s="3">
-        <v>3327000</v>
+        <v>3486600</v>
       </c>
       <c r="F61" s="3">
-        <v>4167300</v>
+        <v>4367100</v>
       </c>
       <c r="G61" s="3">
-        <v>3648800</v>
+        <v>3823700</v>
       </c>
       <c r="H61" s="3">
-        <v>4375800</v>
+        <v>4585600</v>
       </c>
       <c r="I61" s="3">
-        <v>3167300</v>
+        <v>3319100</v>
       </c>
       <c r="J61" s="3">
-        <v>2434500</v>
+        <v>2551200</v>
       </c>
       <c r="K61" s="3">
         <v>2972800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3825300</v>
+        <v>4008700</v>
       </c>
       <c r="E62" s="3">
-        <v>4383800</v>
+        <v>4593900</v>
       </c>
       <c r="F62" s="3">
-        <v>4150600</v>
+        <v>4349600</v>
       </c>
       <c r="G62" s="3">
-        <v>4659700</v>
+        <v>4883200</v>
       </c>
       <c r="H62" s="3">
-        <v>4799900</v>
+        <v>5030000</v>
       </c>
       <c r="I62" s="3">
-        <v>5885000</v>
+        <v>6167100</v>
       </c>
       <c r="J62" s="3">
-        <v>6762300</v>
+        <v>7086500</v>
       </c>
       <c r="K62" s="3">
         <v>7120600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11504100</v>
+        <v>12055700</v>
       </c>
       <c r="E66" s="3">
-        <v>11346500</v>
+        <v>11890500</v>
       </c>
       <c r="F66" s="3">
-        <v>10873000</v>
+        <v>11394300</v>
       </c>
       <c r="G66" s="3">
-        <v>10635500</v>
+        <v>11145400</v>
       </c>
       <c r="H66" s="3">
-        <v>11961700</v>
+        <v>12535200</v>
       </c>
       <c r="I66" s="3">
-        <v>13271100</v>
+        <v>13907400</v>
       </c>
       <c r="J66" s="3">
-        <v>12220200</v>
+        <v>12806100</v>
       </c>
       <c r="K66" s="3">
         <v>12044600</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>634800</v>
+        <v>665200</v>
       </c>
       <c r="E70" s="3">
-        <v>634800</v>
+        <v>665200</v>
       </c>
       <c r="F70" s="3">
-        <v>634800</v>
+        <v>665200</v>
       </c>
       <c r="G70" s="3">
-        <v>634800</v>
+        <v>665200</v>
       </c>
       <c r="H70" s="3">
-        <v>634800</v>
+        <v>665200</v>
       </c>
       <c r="I70" s="3">
-        <v>387800</v>
+        <v>406400</v>
       </c>
       <c r="J70" s="3">
-        <v>211300</v>
+        <v>221500</v>
       </c>
       <c r="K70" s="3">
         <v>219100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6075200</v>
+        <v>6366500</v>
       </c>
       <c r="E72" s="3">
-        <v>7461000</v>
+        <v>7818700</v>
       </c>
       <c r="F72" s="3">
-        <v>6686800</v>
+        <v>7007400</v>
       </c>
       <c r="G72" s="3">
-        <v>6142100</v>
+        <v>6436500</v>
       </c>
       <c r="H72" s="3">
-        <v>5511700</v>
+        <v>5775900</v>
       </c>
       <c r="I72" s="3">
-        <v>9198900</v>
+        <v>9640000</v>
       </c>
       <c r="J72" s="3">
-        <v>9161900</v>
+        <v>9601200</v>
       </c>
       <c r="K72" s="3">
         <v>8995800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11916600</v>
+        <v>12488000</v>
       </c>
       <c r="E76" s="3">
-        <v>13601500</v>
+        <v>14253700</v>
       </c>
       <c r="F76" s="3">
-        <v>12406100</v>
+        <v>13000900</v>
       </c>
       <c r="G76" s="3">
-        <v>12159200</v>
+        <v>12742200</v>
       </c>
       <c r="H76" s="3">
-        <v>11411100</v>
+        <v>11958200</v>
       </c>
       <c r="I76" s="3">
-        <v>14555200</v>
+        <v>15253000</v>
       </c>
       <c r="J76" s="3">
-        <v>14370700</v>
+        <v>15059700</v>
       </c>
       <c r="K76" s="3">
         <v>14205100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1021000</v>
+        <v>-1069300</v>
       </c>
       <c r="E81" s="3">
-        <v>1033400</v>
+        <v>1082300</v>
       </c>
       <c r="F81" s="3">
-        <v>546500</v>
+        <v>572300</v>
       </c>
       <c r="G81" s="3">
-        <v>643800</v>
+        <v>674300</v>
       </c>
       <c r="H81" s="3">
-        <v>-2823900</v>
+        <v>-2957600</v>
       </c>
       <c r="I81" s="3">
-        <v>904700</v>
+        <v>947600</v>
       </c>
       <c r="J81" s="3">
-        <v>1319700</v>
+        <v>1382100</v>
       </c>
       <c r="K81" s="3">
         <v>1512400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3993900</v>
+        <v>4183000</v>
       </c>
       <c r="E83" s="3">
-        <v>1882900</v>
+        <v>1972000</v>
       </c>
       <c r="F83" s="3">
-        <v>2094300</v>
+        <v>2193500</v>
       </c>
       <c r="G83" s="3">
-        <v>1789100</v>
+        <v>1873800</v>
       </c>
       <c r="H83" s="3">
-        <v>6281500</v>
+        <v>6578900</v>
       </c>
       <c r="I83" s="3">
-        <v>2914000</v>
+        <v>3052000</v>
       </c>
       <c r="J83" s="3">
-        <v>2183700</v>
+        <v>2287100</v>
       </c>
       <c r="K83" s="3">
         <v>1942200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2159000</v>
+        <v>2261200</v>
       </c>
       <c r="E89" s="3">
-        <v>3004100</v>
+        <v>3146300</v>
       </c>
       <c r="F89" s="3">
-        <v>2691700</v>
+        <v>2819100</v>
       </c>
       <c r="G89" s="3">
-        <v>1432300</v>
+        <v>1500100</v>
       </c>
       <c r="H89" s="3">
-        <v>2732400</v>
+        <v>2861700</v>
       </c>
       <c r="I89" s="3">
-        <v>4058600</v>
+        <v>4250700</v>
       </c>
       <c r="J89" s="3">
-        <v>3375500</v>
+        <v>3535300</v>
       </c>
       <c r="K89" s="3">
         <v>3909200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2494000</v>
+        <v>-2612100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2600100</v>
+        <v>-2723200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1613300</v>
+        <v>-1689600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1239000</v>
+        <v>-1297700</v>
       </c>
       <c r="H91" s="3">
-        <v>-2183700</v>
+        <v>-2287100</v>
       </c>
       <c r="I91" s="3">
-        <v>-3650200</v>
+        <v>-3823000</v>
       </c>
       <c r="J91" s="3">
-        <v>-3653800</v>
+        <v>-3826800</v>
       </c>
       <c r="K91" s="3">
         <v>-3538900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2323200</v>
+        <v>-2433200</v>
       </c>
       <c r="E94" s="3">
-        <v>-2558700</v>
+        <v>-2679800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2026700</v>
+        <v>-2122700</v>
       </c>
       <c r="G94" s="3">
-        <v>459300</v>
+        <v>481000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3500500</v>
+        <v>-3666200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3940800</v>
+        <v>-4127400</v>
       </c>
       <c r="J94" s="3">
-        <v>-3431400</v>
+        <v>-3593900</v>
       </c>
       <c r="K94" s="3">
         <v>-3639000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-391000</v>
+        <v>-409500</v>
       </c>
       <c r="E96" s="3">
-        <v>-317600</v>
+        <v>-332600</v>
       </c>
       <c r="F96" s="3">
-        <v>-24700</v>
+        <v>-25900</v>
       </c>
       <c r="G96" s="3">
-        <v>-19600</v>
+        <v>-20500</v>
       </c>
       <c r="H96" s="3">
-        <v>-874200</v>
+        <v>-915600</v>
       </c>
       <c r="I96" s="3">
-        <v>-858900</v>
+        <v>-899600</v>
       </c>
       <c r="J96" s="3">
-        <v>-860400</v>
+        <v>-901100</v>
       </c>
       <c r="K96" s="3">
         <v>-432100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-593700</v>
+        <v>-621800</v>
       </c>
       <c r="E100" s="3">
-        <v>-236200</v>
+        <v>-247400</v>
       </c>
       <c r="F100" s="3">
-        <v>263800</v>
+        <v>276300</v>
       </c>
       <c r="G100" s="3">
-        <v>-989800</v>
+        <v>-1036600</v>
       </c>
       <c r="H100" s="3">
-        <v>-152600</v>
+        <v>-159800</v>
       </c>
       <c r="I100" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="J100" s="3">
-        <v>-614800</v>
+        <v>-643900</v>
       </c>
       <c r="K100" s="3">
         <v>-122000</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-34900</v>
+        <v>-36500</v>
       </c>
       <c r="E101" s="3">
-        <v>47200</v>
+        <v>49500</v>
       </c>
       <c r="F101" s="3">
-        <v>-61000</v>
+        <v>-63900</v>
       </c>
       <c r="G101" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="H101" s="3">
-        <v>50900</v>
+        <v>53300</v>
       </c>
       <c r="I101" s="3">
-        <v>10200</v>
+        <v>10700</v>
       </c>
       <c r="J101" s="3">
-        <v>-3600</v>
+        <v>-3800</v>
       </c>
       <c r="K101" s="3">
         <v>-9800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-792800</v>
+        <v>-830300</v>
       </c>
       <c r="E102" s="3">
-        <v>256500</v>
+        <v>268700</v>
       </c>
       <c r="F102" s="3">
-        <v>867700</v>
+        <v>908700</v>
       </c>
       <c r="G102" s="3">
-        <v>907600</v>
+        <v>950600</v>
       </c>
       <c r="H102" s="3">
-        <v>-869800</v>
+        <v>-911000</v>
       </c>
       <c r="I102" s="3">
-        <v>123500</v>
+        <v>129400</v>
       </c>
       <c r="J102" s="3">
-        <v>-674400</v>
+        <v>-706300</v>
       </c>
       <c r="K102" s="3">
         <v>138500</v>

--- a/AAII_Financials/Yearly/HUSKF_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/HUSKF_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>15208900</v>
+        <v>15383300</v>
       </c>
       <c r="E8" s="3">
-        <v>16935800</v>
+        <v>17130000</v>
       </c>
       <c r="F8" s="3">
-        <v>14143300</v>
+        <v>14305600</v>
       </c>
       <c r="G8" s="3">
-        <v>9832500</v>
+        <v>9945300</v>
       </c>
       <c r="H8" s="3">
-        <v>12458300</v>
+        <v>12601200</v>
       </c>
       <c r="I8" s="3">
-        <v>18336200</v>
+        <v>18546500</v>
       </c>
       <c r="J8" s="3">
-        <v>17746300</v>
+        <v>17949900</v>
       </c>
       <c r="K8" s="3">
         <v>16753300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12051100</v>
+        <v>12189300</v>
       </c>
       <c r="E9" s="3">
-        <v>13211000</v>
+        <v>13362500</v>
       </c>
       <c r="F9" s="3">
-        <v>10841700</v>
+        <v>10966100</v>
       </c>
       <c r="G9" s="3">
-        <v>7671800</v>
+        <v>7759800</v>
       </c>
       <c r="H9" s="3">
-        <v>9430700</v>
+        <v>9538800</v>
       </c>
       <c r="I9" s="3">
-        <v>13340400</v>
+        <v>13493400</v>
       </c>
       <c r="J9" s="3">
-        <v>12832000</v>
+        <v>12979200</v>
       </c>
       <c r="K9" s="3">
         <v>12064200</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3157800</v>
+        <v>3194000</v>
       </c>
       <c r="E10" s="3">
-        <v>3724800</v>
+        <v>3767500</v>
       </c>
       <c r="F10" s="3">
-        <v>3301600</v>
+        <v>3339500</v>
       </c>
       <c r="G10" s="3">
-        <v>2160700</v>
+        <v>2185500</v>
       </c>
       <c r="H10" s="3">
-        <v>3027600</v>
+        <v>3062300</v>
       </c>
       <c r="I10" s="3">
-        <v>4995800</v>
+        <v>5053100</v>
       </c>
       <c r="J10" s="3">
-        <v>4914400</v>
+        <v>4970700</v>
       </c>
       <c r="K10" s="3">
         <v>4689100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>416300</v>
+        <v>421100</v>
       </c>
       <c r="E12" s="3">
-        <v>113400</v>
+        <v>114700</v>
       </c>
       <c r="F12" s="3">
-        <v>111100</v>
+        <v>112400</v>
       </c>
       <c r="G12" s="3">
-        <v>143100</v>
+        <v>144700</v>
       </c>
       <c r="H12" s="3">
-        <v>340200</v>
+        <v>344100</v>
       </c>
       <c r="I12" s="3">
-        <v>162900</v>
+        <v>164700</v>
       </c>
       <c r="J12" s="3">
-        <v>187200</v>
+        <v>189400</v>
       </c>
       <c r="K12" s="3">
         <v>259000</v>
@@ -930,25 +930,25 @@
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>4183000</v>
+        <v>4230900</v>
       </c>
       <c r="E15" s="3">
-        <v>1972000</v>
+        <v>1994600</v>
       </c>
       <c r="F15" s="3">
-        <v>2193500</v>
+        <v>2218600</v>
       </c>
       <c r="G15" s="3">
-        <v>1873800</v>
+        <v>1895300</v>
       </c>
       <c r="H15" s="3">
-        <v>6578900</v>
+        <v>6654300</v>
       </c>
       <c r="I15" s="3">
-        <v>3052000</v>
+        <v>3087000</v>
       </c>
       <c r="J15" s="3">
-        <v>2287100</v>
+        <v>2313300</v>
       </c>
       <c r="K15" s="3">
         <v>1942200</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>16727200</v>
+        <v>16919100</v>
       </c>
       <c r="E17" s="3">
-        <v>15341300</v>
+        <v>15517300</v>
       </c>
       <c r="F17" s="3">
-        <v>13592300</v>
+        <v>13748200</v>
       </c>
       <c r="G17" s="3">
-        <v>8838500</v>
+        <v>8939900</v>
       </c>
       <c r="H17" s="3">
-        <v>16374900</v>
+        <v>16562700</v>
       </c>
       <c r="I17" s="3">
-        <v>16864200</v>
+        <v>17057700</v>
       </c>
       <c r="J17" s="3">
-        <v>15664800</v>
+        <v>15844400</v>
       </c>
       <c r="K17" s="3">
         <v>14510000</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1518400</v>
+        <v>-1535800</v>
       </c>
       <c r="E18" s="3">
-        <v>1594500</v>
+        <v>1612800</v>
       </c>
       <c r="F18" s="3">
-        <v>551000</v>
+        <v>557300</v>
       </c>
       <c r="G18" s="3">
-        <v>994000</v>
+        <v>1005400</v>
       </c>
       <c r="H18" s="3">
-        <v>-3916600</v>
+        <v>-3961500</v>
       </c>
       <c r="I18" s="3">
-        <v>1471900</v>
+        <v>1488800</v>
       </c>
       <c r="J18" s="3">
-        <v>2081600</v>
+        <v>2105500</v>
       </c>
       <c r="K18" s="3">
         <v>2243300</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>49500</v>
+        <v>50000</v>
       </c>
       <c r="E20" s="3">
-        <v>34200</v>
+        <v>34600</v>
       </c>
       <c r="F20" s="3">
-        <v>-18300</v>
+        <v>-18500</v>
       </c>
       <c r="G20" s="3">
-        <v>-74600</v>
+        <v>-75400</v>
       </c>
       <c r="H20" s="3">
-        <v>-50200</v>
+        <v>-50800</v>
       </c>
       <c r="I20" s="3">
-        <v>-42600</v>
+        <v>-43100</v>
       </c>
       <c r="J20" s="3">
-        <v>-45700</v>
+        <v>-46200</v>
       </c>
       <c r="K20" s="3">
         <v>-800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2704900</v>
+        <v>2737700</v>
       </c>
       <c r="E21" s="3">
-        <v>3596400</v>
+        <v>3638500</v>
       </c>
       <c r="F21" s="3">
-        <v>2721400</v>
+        <v>2753600</v>
       </c>
       <c r="G21" s="3">
-        <v>2789100</v>
+        <v>2821900</v>
       </c>
       <c r="H21" s="3">
-        <v>2597600</v>
+        <v>2630300</v>
       </c>
       <c r="I21" s="3">
-        <v>4474600</v>
+        <v>4527200</v>
       </c>
       <c r="J21" s="3">
-        <v>4318000</v>
+        <v>4368500</v>
       </c>
       <c r="K21" s="3">
         <v>4185600</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>181900</v>
+        <v>184000</v>
       </c>
       <c r="E22" s="3">
-        <v>161400</v>
+        <v>163200</v>
       </c>
       <c r="F22" s="3">
-        <v>210100</v>
+        <v>212500</v>
       </c>
       <c r="G22" s="3">
-        <v>196400</v>
+        <v>198600</v>
       </c>
       <c r="H22" s="3">
-        <v>121000</v>
+        <v>122400</v>
       </c>
       <c r="I22" s="3">
-        <v>71500</v>
+        <v>72400</v>
       </c>
       <c r="J22" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="K22" s="3">
         <v>107600</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1650800</v>
+        <v>-1669700</v>
       </c>
       <c r="E23" s="3">
-        <v>1467400</v>
+        <v>1484200</v>
       </c>
       <c r="F23" s="3">
-        <v>322700</v>
+        <v>326400</v>
       </c>
       <c r="G23" s="3">
-        <v>723000</v>
+        <v>731300</v>
       </c>
       <c r="H23" s="3">
-        <v>-4087800</v>
+        <v>-4134700</v>
       </c>
       <c r="I23" s="3">
-        <v>1357800</v>
+        <v>1373400</v>
       </c>
       <c r="J23" s="3">
-        <v>2000100</v>
+        <v>2023100</v>
       </c>
       <c r="K23" s="3">
         <v>2134900</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-608100</v>
+        <v>-615100</v>
       </c>
       <c r="E24" s="3">
-        <v>358500</v>
+        <v>362600</v>
       </c>
       <c r="F24" s="3">
-        <v>56300</v>
+        <v>57000</v>
       </c>
       <c r="G24" s="3">
-        <v>21300</v>
+        <v>21600</v>
       </c>
       <c r="H24" s="3">
-        <v>-1157600</v>
+        <v>-1170900</v>
       </c>
       <c r="I24" s="3">
-        <v>400300</v>
+        <v>404900</v>
       </c>
       <c r="J24" s="3">
-        <v>608100</v>
+        <v>615100</v>
       </c>
       <c r="K24" s="3">
         <v>612800</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1042700</v>
+        <v>-1054700</v>
       </c>
       <c r="E26" s="3">
-        <v>1108900</v>
+        <v>1121600</v>
       </c>
       <c r="F26" s="3">
-        <v>266400</v>
+        <v>269400</v>
       </c>
       <c r="G26" s="3">
-        <v>701700</v>
+        <v>709800</v>
       </c>
       <c r="H26" s="3">
-        <v>-2930200</v>
+        <v>-2963800</v>
       </c>
       <c r="I26" s="3">
-        <v>957500</v>
+        <v>968400</v>
       </c>
       <c r="J26" s="3">
-        <v>1392000</v>
+        <v>1408000</v>
       </c>
       <c r="K26" s="3">
         <v>1522100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1069300</v>
+        <v>-1081600</v>
       </c>
       <c r="E27" s="3">
-        <v>1082300</v>
+        <v>1094700</v>
       </c>
       <c r="F27" s="3">
-        <v>240500</v>
+        <v>243300</v>
       </c>
       <c r="G27" s="3">
-        <v>674300</v>
+        <v>682100</v>
       </c>
       <c r="H27" s="3">
-        <v>-2957600</v>
+        <v>-2991500</v>
       </c>
       <c r="I27" s="3">
-        <v>947600</v>
+        <v>958400</v>
       </c>
       <c r="J27" s="3">
-        <v>1382100</v>
+        <v>1398000</v>
       </c>
       <c r="K27" s="3">
         <v>1512400</v>
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="3">
-        <v>331800</v>
+        <v>335600</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-49500</v>
+        <v>-50000</v>
       </c>
       <c r="E32" s="3">
-        <v>-34200</v>
+        <v>-34600</v>
       </c>
       <c r="F32" s="3">
-        <v>18300</v>
+        <v>18500</v>
       </c>
       <c r="G32" s="3">
-        <v>74600</v>
+        <v>75400</v>
       </c>
       <c r="H32" s="3">
-        <v>50200</v>
+        <v>50800</v>
       </c>
       <c r="I32" s="3">
-        <v>42600</v>
+        <v>43100</v>
       </c>
       <c r="J32" s="3">
-        <v>45700</v>
+        <v>46200</v>
       </c>
       <c r="K32" s="3">
         <v>800</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1069300</v>
+        <v>-1081600</v>
       </c>
       <c r="E33" s="3">
-        <v>1082300</v>
+        <v>1094700</v>
       </c>
       <c r="F33" s="3">
-        <v>572300</v>
+        <v>578900</v>
       </c>
       <c r="G33" s="3">
-        <v>674300</v>
+        <v>682100</v>
       </c>
       <c r="H33" s="3">
-        <v>-2957600</v>
+        <v>-2991500</v>
       </c>
       <c r="I33" s="3">
-        <v>947600</v>
+        <v>958400</v>
       </c>
       <c r="J33" s="3">
-        <v>1382100</v>
+        <v>1398000</v>
       </c>
       <c r="K33" s="3">
         <v>1512400</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1069300</v>
+        <v>-1081600</v>
       </c>
       <c r="E35" s="3">
-        <v>1082300</v>
+        <v>1094700</v>
       </c>
       <c r="F35" s="3">
-        <v>572300</v>
+        <v>578900</v>
       </c>
       <c r="G35" s="3">
-        <v>674300</v>
+        <v>682100</v>
       </c>
       <c r="H35" s="3">
-        <v>-2957600</v>
+        <v>-2991500</v>
       </c>
       <c r="I35" s="3">
-        <v>947600</v>
+        <v>958400</v>
       </c>
       <c r="J35" s="3">
-        <v>1382100</v>
+        <v>1398000</v>
       </c>
       <c r="K35" s="3">
         <v>1512400</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1350900</v>
+        <v>1366400</v>
       </c>
       <c r="E41" s="3">
-        <v>2181300</v>
+        <v>2206300</v>
       </c>
       <c r="F41" s="3">
-        <v>1912600</v>
+        <v>1934600</v>
       </c>
       <c r="G41" s="3">
-        <v>1003900</v>
+        <v>1015400</v>
       </c>
       <c r="H41" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="I41" s="3">
-        <v>964300</v>
+        <v>975400</v>
       </c>
       <c r="J41" s="3">
-        <v>232100</v>
+        <v>234800</v>
       </c>
       <c r="K41" s="3">
         <v>1715600</v>
@@ -1703,7 +1703,7 @@
         <v>24</v>
       </c>
       <c r="J42" s="3">
-        <v>602800</v>
+        <v>609700</v>
       </c>
       <c r="K42" s="3">
         <v>1428800</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1134800</v>
+        <v>1147800</v>
       </c>
       <c r="E43" s="3">
-        <v>1083800</v>
+        <v>1096200</v>
       </c>
       <c r="F43" s="3">
-        <v>1014500</v>
+        <v>1026200</v>
       </c>
       <c r="G43" s="3">
-        <v>923200</v>
+        <v>933800</v>
       </c>
       <c r="H43" s="3">
-        <v>964300</v>
+        <v>975400</v>
       </c>
       <c r="I43" s="3">
-        <v>1236000</v>
+        <v>1250200</v>
       </c>
       <c r="J43" s="3">
-        <v>1443800</v>
+        <v>1460300</v>
       </c>
       <c r="K43" s="3">
         <v>3252800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1131000</v>
+        <v>1144000</v>
       </c>
       <c r="E44" s="3">
-        <v>937700</v>
+        <v>948400</v>
       </c>
       <c r="F44" s="3">
-        <v>1151500</v>
+        <v>1164700</v>
       </c>
       <c r="G44" s="3">
-        <v>1185800</v>
+        <v>1199400</v>
       </c>
       <c r="H44" s="3">
-        <v>949100</v>
+        <v>960000</v>
       </c>
       <c r="I44" s="3">
-        <v>1054100</v>
+        <v>1066200</v>
       </c>
       <c r="J44" s="3">
-        <v>1379100</v>
+        <v>1394900</v>
       </c>
       <c r="K44" s="3">
         <v>3816600</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>141600</v>
+        <v>143200</v>
       </c>
       <c r="E45" s="3">
-        <v>126300</v>
+        <v>127800</v>
       </c>
       <c r="F45" s="3">
-        <v>195600</v>
+        <v>197800</v>
       </c>
       <c r="G45" s="3">
-        <v>173500</v>
+        <v>175500</v>
       </c>
       <c r="H45" s="3">
-        <v>251200</v>
+        <v>254000</v>
       </c>
       <c r="I45" s="3">
-        <v>166700</v>
+        <v>168600</v>
       </c>
       <c r="J45" s="3">
-        <v>84500</v>
+        <v>85500</v>
       </c>
       <c r="K45" s="3">
         <v>79000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3758300</v>
+        <v>3801400</v>
       </c>
       <c r="E46" s="3">
-        <v>4329100</v>
+        <v>4378700</v>
       </c>
       <c r="F46" s="3">
-        <v>4274300</v>
+        <v>4323300</v>
       </c>
       <c r="G46" s="3">
-        <v>3286400</v>
+        <v>3324100</v>
       </c>
       <c r="H46" s="3">
-        <v>2217800</v>
+        <v>2243300</v>
       </c>
       <c r="I46" s="3">
-        <v>3421100</v>
+        <v>3460300</v>
       </c>
       <c r="J46" s="3">
-        <v>3742300</v>
+        <v>3785200</v>
       </c>
       <c r="K46" s="3">
         <v>4135100</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1061000</v>
+        <v>1073100</v>
       </c>
       <c r="E47" s="3">
-        <v>1188800</v>
+        <v>1202500</v>
       </c>
       <c r="F47" s="3">
-        <v>1126400</v>
+        <v>1139300</v>
       </c>
       <c r="G47" s="3">
-        <v>1035100</v>
+        <v>1047000</v>
       </c>
       <c r="H47" s="3">
-        <v>356200</v>
+        <v>360300</v>
       </c>
       <c r="I47" s="3">
-        <v>180400</v>
+        <v>182400</v>
       </c>
       <c r="J47" s="3">
-        <v>220000</v>
+        <v>222500</v>
       </c>
       <c r="K47" s="3">
         <v>557100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19383400</v>
+        <v>19605800</v>
       </c>
       <c r="E48" s="3">
-        <v>20394900</v>
+        <v>20628900</v>
       </c>
       <c r="F48" s="3">
-        <v>18963300</v>
+        <v>19180800</v>
       </c>
       <c r="G48" s="3">
-        <v>19528800</v>
+        <v>19752800</v>
       </c>
       <c r="H48" s="3">
-        <v>21862300</v>
+        <v>22113100</v>
       </c>
       <c r="I48" s="3">
-        <v>25219500</v>
+        <v>25508800</v>
       </c>
       <c r="J48" s="3">
-        <v>23513100</v>
+        <v>23782800</v>
       </c>
       <c r="K48" s="3">
         <v>25618200</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>499300</v>
+        <v>505000</v>
       </c>
       <c r="E49" s="3">
-        <v>525200</v>
+        <v>531200</v>
       </c>
       <c r="F49" s="3">
-        <v>481800</v>
+        <v>487300</v>
       </c>
       <c r="G49" s="3">
-        <v>516800</v>
+        <v>522700</v>
       </c>
       <c r="H49" s="3">
-        <v>532800</v>
+        <v>538900</v>
       </c>
       <c r="I49" s="3">
-        <v>567800</v>
+        <v>574300</v>
       </c>
       <c r="J49" s="3">
-        <v>531200</v>
+        <v>537300</v>
       </c>
       <c r="K49" s="3">
         <v>499100</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>506900</v>
+        <v>512700</v>
       </c>
       <c r="E52" s="3">
-        <v>371400</v>
+        <v>375700</v>
       </c>
       <c r="F52" s="3">
-        <v>214600</v>
+        <v>217100</v>
       </c>
       <c r="G52" s="3">
-        <v>185700</v>
+        <v>187800</v>
       </c>
       <c r="H52" s="3">
-        <v>189500</v>
+        <v>191700</v>
       </c>
       <c r="I52" s="3">
-        <v>178100</v>
+        <v>180100</v>
       </c>
       <c r="J52" s="3">
-        <v>80700</v>
+        <v>81600</v>
       </c>
       <c r="K52" s="3">
         <v>228800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>25208800</v>
+        <v>25498000</v>
       </c>
       <c r="E54" s="3">
-        <v>26809400</v>
+        <v>27116900</v>
       </c>
       <c r="F54" s="3">
-        <v>25060400</v>
+        <v>25347900</v>
       </c>
       <c r="G54" s="3">
-        <v>24552800</v>
+        <v>24834400</v>
       </c>
       <c r="H54" s="3">
-        <v>25158600</v>
+        <v>25447200</v>
       </c>
       <c r="I54" s="3">
-        <v>29566800</v>
+        <v>29906000</v>
       </c>
       <c r="J54" s="3">
-        <v>28087300</v>
+        <v>28409400</v>
       </c>
       <c r="K54" s="3">
         <v>26468800</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>896600</v>
+        <v>906800</v>
       </c>
       <c r="E57" s="3">
-        <v>853200</v>
+        <v>863000</v>
       </c>
       <c r="F57" s="3">
-        <v>723000</v>
+        <v>731300</v>
       </c>
       <c r="G57" s="3">
-        <v>580000</v>
+        <v>586600</v>
       </c>
       <c r="H57" s="3">
-        <v>484100</v>
+        <v>489600</v>
       </c>
       <c r="I57" s="3">
-        <v>418600</v>
+        <v>423400</v>
       </c>
       <c r="J57" s="3">
-        <v>62400</v>
+        <v>63100</v>
       </c>
       <c r="K57" s="3">
         <v>2451800</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>806000</v>
+        <v>815200</v>
       </c>
       <c r="E58" s="3">
-        <v>1242900</v>
+        <v>1257100</v>
       </c>
       <c r="F58" s="3">
-        <v>152200</v>
+        <v>154000</v>
       </c>
       <c r="G58" s="3">
-        <v>570100</v>
+        <v>576600</v>
       </c>
       <c r="H58" s="3">
-        <v>918600</v>
+        <v>929200</v>
       </c>
       <c r="I58" s="3">
-        <v>2072400</v>
+        <v>2096200</v>
       </c>
       <c r="J58" s="3">
-        <v>607300</v>
+        <v>614300</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1825900</v>
+        <v>1846800</v>
       </c>
       <c r="E59" s="3">
-        <v>1704800</v>
+        <v>1724400</v>
       </c>
       <c r="F59" s="3">
-        <v>1793900</v>
+        <v>1814500</v>
       </c>
       <c r="G59" s="3">
-        <v>1280200</v>
+        <v>1294800</v>
       </c>
       <c r="H59" s="3">
-        <v>1516900</v>
+        <v>1534300</v>
       </c>
       <c r="I59" s="3">
-        <v>1930100</v>
+        <v>1952300</v>
       </c>
       <c r="J59" s="3">
-        <v>2498700</v>
+        <v>2527300</v>
       </c>
       <c r="K59" s="3">
         <v>4350400</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3528400</v>
+        <v>3568900</v>
       </c>
       <c r="E60" s="3">
-        <v>3800900</v>
+        <v>3844500</v>
       </c>
       <c r="F60" s="3">
-        <v>2669100</v>
+        <v>2699800</v>
       </c>
       <c r="G60" s="3">
-        <v>2430200</v>
+        <v>2458000</v>
       </c>
       <c r="H60" s="3">
-        <v>2919500</v>
+        <v>2953000</v>
       </c>
       <c r="I60" s="3">
-        <v>4421200</v>
+        <v>4471900</v>
       </c>
       <c r="J60" s="3">
-        <v>3168400</v>
+        <v>3204800</v>
       </c>
       <c r="K60" s="3">
         <v>2327600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4507900</v>
+        <v>4559600</v>
       </c>
       <c r="E61" s="3">
-        <v>3486600</v>
+        <v>3526500</v>
       </c>
       <c r="F61" s="3">
-        <v>4367100</v>
+        <v>4417200</v>
       </c>
       <c r="G61" s="3">
-        <v>3823700</v>
+        <v>3867600</v>
       </c>
       <c r="H61" s="3">
-        <v>4585600</v>
+        <v>4638200</v>
       </c>
       <c r="I61" s="3">
-        <v>3319100</v>
+        <v>3357200</v>
       </c>
       <c r="J61" s="3">
-        <v>2551200</v>
+        <v>2580400</v>
       </c>
       <c r="K61" s="3">
         <v>2972800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4008700</v>
+        <v>4054600</v>
       </c>
       <c r="E62" s="3">
-        <v>4593900</v>
+        <v>4646600</v>
       </c>
       <c r="F62" s="3">
-        <v>4349600</v>
+        <v>4399500</v>
       </c>
       <c r="G62" s="3">
-        <v>4883200</v>
+        <v>4939200</v>
       </c>
       <c r="H62" s="3">
-        <v>5030000</v>
+        <v>5087700</v>
       </c>
       <c r="I62" s="3">
-        <v>6167100</v>
+        <v>6237900</v>
       </c>
       <c r="J62" s="3">
-        <v>7086500</v>
+        <v>7167800</v>
       </c>
       <c r="K62" s="3">
         <v>7120600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12055700</v>
+        <v>12193900</v>
       </c>
       <c r="E66" s="3">
-        <v>11890500</v>
+        <v>12026900</v>
       </c>
       <c r="F66" s="3">
-        <v>11394300</v>
+        <v>11525000</v>
       </c>
       <c r="G66" s="3">
-        <v>11145400</v>
+        <v>11273200</v>
       </c>
       <c r="H66" s="3">
-        <v>12535200</v>
+        <v>12678900</v>
       </c>
       <c r="I66" s="3">
-        <v>13907400</v>
+        <v>14066900</v>
       </c>
       <c r="J66" s="3">
-        <v>12806100</v>
+        <v>12953000</v>
       </c>
       <c r="K66" s="3">
         <v>12044600</v>
@@ -2555,25 +2555,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>665200</v>
+        <v>672800</v>
       </c>
       <c r="E70" s="3">
-        <v>665200</v>
+        <v>672800</v>
       </c>
       <c r="F70" s="3">
-        <v>665200</v>
+        <v>672800</v>
       </c>
       <c r="G70" s="3">
-        <v>665200</v>
+        <v>672800</v>
       </c>
       <c r="H70" s="3">
-        <v>665200</v>
+        <v>672800</v>
       </c>
       <c r="I70" s="3">
-        <v>406400</v>
+        <v>411100</v>
       </c>
       <c r="J70" s="3">
-        <v>221500</v>
+        <v>224000</v>
       </c>
       <c r="K70" s="3">
         <v>219100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6366500</v>
+        <v>6439500</v>
       </c>
       <c r="E72" s="3">
-        <v>7818700</v>
+        <v>7908400</v>
       </c>
       <c r="F72" s="3">
-        <v>7007400</v>
+        <v>7087700</v>
       </c>
       <c r="G72" s="3">
-        <v>6436500</v>
+        <v>6510400</v>
       </c>
       <c r="H72" s="3">
-        <v>5775900</v>
+        <v>5842200</v>
       </c>
       <c r="I72" s="3">
-        <v>9640000</v>
+        <v>9750500</v>
       </c>
       <c r="J72" s="3">
-        <v>9601200</v>
+        <v>9711300</v>
       </c>
       <c r="K72" s="3">
         <v>8995800</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12488000</v>
+        <v>12631200</v>
       </c>
       <c r="E76" s="3">
-        <v>14253700</v>
+        <v>14417200</v>
       </c>
       <c r="F76" s="3">
-        <v>13000900</v>
+        <v>13150100</v>
       </c>
       <c r="G76" s="3">
-        <v>12742200</v>
+        <v>12888300</v>
       </c>
       <c r="H76" s="3">
-        <v>11958200</v>
+        <v>12095400</v>
       </c>
       <c r="I76" s="3">
-        <v>15253000</v>
+        <v>15427900</v>
       </c>
       <c r="J76" s="3">
-        <v>15059700</v>
+        <v>15232400</v>
       </c>
       <c r="K76" s="3">
         <v>14205100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1069300</v>
+        <v>-1081600</v>
       </c>
       <c r="E81" s="3">
-        <v>1082300</v>
+        <v>1094700</v>
       </c>
       <c r="F81" s="3">
-        <v>572300</v>
+        <v>578900</v>
       </c>
       <c r="G81" s="3">
-        <v>674300</v>
+        <v>682100</v>
       </c>
       <c r="H81" s="3">
-        <v>-2957600</v>
+        <v>-2991500</v>
       </c>
       <c r="I81" s="3">
-        <v>947600</v>
+        <v>958400</v>
       </c>
       <c r="J81" s="3">
-        <v>1382100</v>
+        <v>1398000</v>
       </c>
       <c r="K81" s="3">
         <v>1512400</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4183000</v>
+        <v>4230900</v>
       </c>
       <c r="E83" s="3">
-        <v>1972000</v>
+        <v>1994600</v>
       </c>
       <c r="F83" s="3">
-        <v>2193500</v>
+        <v>2218600</v>
       </c>
       <c r="G83" s="3">
-        <v>1873800</v>
+        <v>1895300</v>
       </c>
       <c r="H83" s="3">
-        <v>6578900</v>
+        <v>6654300</v>
       </c>
       <c r="I83" s="3">
-        <v>3052000</v>
+        <v>3087000</v>
       </c>
       <c r="J83" s="3">
-        <v>2287100</v>
+        <v>2313300</v>
       </c>
       <c r="K83" s="3">
         <v>1942200</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2261200</v>
+        <v>2287100</v>
       </c>
       <c r="E89" s="3">
-        <v>3146300</v>
+        <v>3182400</v>
       </c>
       <c r="F89" s="3">
-        <v>2819100</v>
+        <v>2851400</v>
       </c>
       <c r="G89" s="3">
-        <v>1500100</v>
+        <v>1517300</v>
       </c>
       <c r="H89" s="3">
-        <v>2861700</v>
+        <v>2894500</v>
       </c>
       <c r="I89" s="3">
-        <v>4250700</v>
+        <v>4299400</v>
       </c>
       <c r="J89" s="3">
-        <v>3535300</v>
+        <v>3575800</v>
       </c>
       <c r="K89" s="3">
         <v>3909200</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2612100</v>
+        <v>-2642000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2723200</v>
+        <v>-2754400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1689600</v>
+        <v>-1709000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1297700</v>
+        <v>-1312500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2287100</v>
+        <v>-2313300</v>
       </c>
       <c r="I91" s="3">
-        <v>-3823000</v>
+        <v>-3866800</v>
       </c>
       <c r="J91" s="3">
-        <v>-3826800</v>
+        <v>-3870700</v>
       </c>
       <c r="K91" s="3">
         <v>-3538900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2433200</v>
+        <v>-2461100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2679800</v>
+        <v>-2710500</v>
       </c>
       <c r="F94" s="3">
-        <v>-2122700</v>
+        <v>-2147000</v>
       </c>
       <c r="G94" s="3">
-        <v>481000</v>
+        <v>486500</v>
       </c>
       <c r="H94" s="3">
-        <v>-3666200</v>
+        <v>-3708200</v>
       </c>
       <c r="I94" s="3">
-        <v>-4127400</v>
+        <v>-4174700</v>
       </c>
       <c r="J94" s="3">
-        <v>-3593900</v>
+        <v>-3635100</v>
       </c>
       <c r="K94" s="3">
         <v>-3639000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-409500</v>
+        <v>-414200</v>
       </c>
       <c r="E96" s="3">
-        <v>-332600</v>
+        <v>-336400</v>
       </c>
       <c r="F96" s="3">
-        <v>-25900</v>
+        <v>-26200</v>
       </c>
       <c r="G96" s="3">
-        <v>-20500</v>
+        <v>-20800</v>
       </c>
       <c r="H96" s="3">
-        <v>-915600</v>
+        <v>-926100</v>
       </c>
       <c r="I96" s="3">
-        <v>-899600</v>
+        <v>-909900</v>
       </c>
       <c r="J96" s="3">
-        <v>-901100</v>
+        <v>-911500</v>
       </c>
       <c r="K96" s="3">
         <v>-432100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-621800</v>
+        <v>-628900</v>
       </c>
       <c r="E100" s="3">
-        <v>-247400</v>
+        <v>-250200</v>
       </c>
       <c r="F100" s="3">
-        <v>276300</v>
+        <v>279400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1036600</v>
+        <v>-1048500</v>
       </c>
       <c r="H100" s="3">
-        <v>-159800</v>
+        <v>-161700</v>
       </c>
       <c r="I100" s="3">
         <v>-4600</v>
       </c>
       <c r="J100" s="3">
-        <v>-643900</v>
+        <v>-651300</v>
       </c>
       <c r="K100" s="3">
         <v>-122000</v>
@@ -3463,22 +3463,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-36500</v>
+        <v>-37000</v>
       </c>
       <c r="E101" s="3">
-        <v>49500</v>
+        <v>50000</v>
       </c>
       <c r="F101" s="3">
-        <v>-63900</v>
+        <v>-64700</v>
       </c>
       <c r="G101" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H101" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="I101" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="J101" s="3">
         <v>-3800</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-830300</v>
+        <v>-839900</v>
       </c>
       <c r="E102" s="3">
-        <v>268700</v>
+        <v>271700</v>
       </c>
       <c r="F102" s="3">
-        <v>908700</v>
+        <v>919200</v>
       </c>
       <c r="G102" s="3">
-        <v>950600</v>
+        <v>961500</v>
       </c>
       <c r="H102" s="3">
-        <v>-911000</v>
+        <v>-921500</v>
       </c>
       <c r="I102" s="3">
-        <v>129400</v>
+        <v>130900</v>
       </c>
       <c r="J102" s="3">
-        <v>-706300</v>
+        <v>-714400</v>
       </c>
       <c r="K102" s="3">
         <v>138500</v>
